--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 0" r:id="rId3" sheetId="1"/>
+    <sheet name="CarWithAnnotations" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
   <si>
     <t>id</t>
   </si>
@@ -23,10 +23,13 @@
     <t>model</t>
   </si>
   <si>
-    <t>city</t>
+    <t>KKKKK</t>
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
   </si>
   <si>
     <t>foo</t>
@@ -41,10 +44,13 @@
     <t>My modessssl</t>
   </si>
   <si>
-    <t>POPO</t>
+    <t>must.belmo.excel.importexport.objects.Car{name='a car name', model='My modessssl', id=22}</t>
   </si>
   <si>
     <t>Maroc</t>
+  </si>
+  <si>
+    <t>POPO</t>
   </si>
 </sst>
 </file>
@@ -89,7 +95,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -114,25 +120,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CarWithAnnotations" r:id="rId3" sheetId="1"/>
+    <sheet name="Car" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>POPO</t>
+  </si>
+  <si>
+    <t>Tue Sep 20 21:57:50 WEST 2022</t>
   </si>
 </sst>
 </file>
@@ -144,7 +147,7 @@
         <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,28 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>KKKKK</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>foo</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>22</t>
   </si>
@@ -53,7 +32,7 @@
     <t>POPO</t>
   </si>
   <si>
-    <t>Tue Sep 20 21:57:50 WEST 2022</t>
+    <t>Wed Sep 21 16:03:55 WEST 2022</t>
   </si>
 </sst>
 </file>
@@ -98,7 +77,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -127,29 +106,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,13 +6,34 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Car" r:id="rId3" sheetId="1"/>
+    <sheet name="CarWithAnnotations" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>KKKKK</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
   <si>
     <t>22</t>
   </si>
@@ -20,19 +41,19 @@
     <t>a car name</t>
   </si>
   <si>
-    <t>My modessssl</t>
+    <t>My model</t>
   </si>
   <si>
-    <t>must.belmo.excel.importexport.objects.Car{name='a car name', model='My modessssl', id=22}</t>
+    <t>must.belmo.excel.importexport.objects.Car{name='a car name', model='My model', id=22}</t>
   </si>
   <si>
     <t>Maroc</t>
   </si>
   <si>
-    <t>POPO</t>
+    <t>rabat</t>
   </si>
   <si>
-    <t>Wed Sep 21 16:03:55 WEST 2022</t>
+    <t>Thu Sep 22 15:06:49 WEST 2022</t>
   </si>
 </sst>
 </file>
@@ -77,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -106,6 +127,29 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -6,54 +6,27 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CarWithAnnotations" r:id="rId3" sheetId="1"/>
+    <sheet name="Car" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>id</t>
+    <t>My new model</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>KKKKK</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>foo</t>
+    <t>Porsche</t>
   </si>
   <si>
     <t>22</t>
   </si>
   <si>
-    <t>a car name</t>
+    <t>0</t>
   </si>
   <si>
-    <t>My model</t>
-  </si>
-  <si>
-    <t>must.belmo.excel.importexport.objects.Car{name='a car name', model='My model', id=22}</t>
-  </si>
-  <si>
-    <t>Maroc</t>
-  </si>
-  <si>
-    <t>rabat</t>
-  </si>
-  <si>
-    <t>Thu Sep 22 15:06:49 WEST 2022</t>
+    <t>name</t>
   </si>
 </sst>
 </file>
@@ -98,56 +71,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="F1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="F1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>My new model</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>name</t>
+  </si>
+  <si>
+    <t>2022-09-28</t>
   </si>
 </sst>
 </file>
@@ -71,7 +74,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="F1:J1"/>
+  <dimension ref="F1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,6 +96,9 @@
       <c r="J1" t="s">
         <v>4</v>
       </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,12 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Porsche</t>
+  </si>
   <si>
     <t>My new model</t>
-  </si>
-  <si>
-    <t>Porsche</t>
   </si>
   <si>
     <t>22</t>
@@ -29,7 +29,13 @@
     <t>name</t>
   </si>
   <si>
-    <t>2022-09-28</t>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>300 000,99 MAD</t>
   </si>
 </sst>
 </file>
@@ -74,30 +80,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="F1:K1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="F1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="I1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,9 +12,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
-    <t>Porsche</t>
+    <t>model</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>foo</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>updateDate</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>name</t>
   </si>
   <si>
     <t>My new model</t>
@@ -26,16 +44,16 @@
     <t>0</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>2022-09-30</t>
+    <t>2022-10-01</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
     <t>300 000,99 MAD</t>
+  </si>
+  <si>
+    <t>Porsche</t>
   </si>
 </sst>
 </file>
@@ -80,7 +98,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -108,8 +126,51 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
         <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -44,7 +44,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2022-10-01</t>
+    <t>2022-10-02</t>
   </si>
   <si>
     <t/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -17,7 +17,7 @@
     <t>model</t>
   </si>
   <si>
-    <t>id</t>
+    <t>musta id</t>
   </si>
   <si>
     <t>foo</t>
@@ -38,13 +38,13 @@
     <t>My new model</t>
   </si>
   <si>
-    <t>22</t>
+    <t>24</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>2022-10-02</t>
+    <t>2022-10-03</t>
   </si>
   <si>
     <t/>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+  <si>
+    <t>fofo</t>
+  </si>
+  <si>
+    <t>tototot</t>
+  </si>
   <si>
     <t>model</t>
   </si>
@@ -35,6 +41,15 @@
     <t>name</t>
   </si>
   <si>
+    <t>nameFromAbstract</t>
+  </si>
+  <si>
+    <t>nameFromAbstractAbstract</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>My new model</t>
   </si>
   <si>
@@ -44,10 +59,7 @@
     <t>0</t>
   </si>
   <si>
-    <t>2022-10-03</t>
-  </si>
-  <si>
-    <t/>
+    <t>2022-10-07</t>
   </si>
   <si>
     <t>300 000,99 MAD</t>
@@ -98,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -126,51 +138,87 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
   <si>
     <t>fofo</t>
   </si>
@@ -20,6 +20,18 @@
     <t>tototot</t>
   </si>
   <si>
+    <t>something</t>
+  </si>
+  <si>
+    <t>setNameFromAbstract</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>enumeration</t>
+  </si>
+  <si>
     <t>model</t>
   </si>
   <si>
@@ -38,9 +50,6 @@
     <t>price</t>
   </si>
   <si>
-    <t>name</t>
-  </si>
-  <si>
     <t>nameFromAbstract</t>
   </si>
   <si>
@@ -50,22 +59,22 @@
     <t/>
   </si>
   <si>
+    <t>Porsche</t>
+  </si>
+  <si>
     <t>My new model</t>
   </si>
   <si>
     <t>24</t>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>2022-10-07</t>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2022-10-09</t>
   </si>
   <si>
     <t>300 000,99 MAD</t>
-  </si>
-  <si>
-    <t>Porsche</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -150,75 +159,102 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,18 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="21">
-  <si>
-    <t>fofo</t>
-  </si>
-  <si>
-    <t>tototot</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>something</t>
   </si>
   <si>
-    <t>setNameFromAbstract</t>
+    <t>model</t>
   </si>
   <si>
     <t>name</t>
@@ -32,7 +26,10 @@
     <t>enumeration</t>
   </si>
   <si>
-    <t>model</t>
+    <t>Inner Object['id']</t>
+  </si>
+  <si>
+    <t>Inner Object['getAnotherId']</t>
   </si>
   <si>
     <t>musta id</t>
@@ -50,28 +47,22 @@
     <t>price</t>
   </si>
   <si>
-    <t>nameFromAbstract</t>
-  </si>
-  <si>
-    <t>nameFromAbstractAbstract</t>
+    <t>My new model</t>
+  </si>
+  <si>
+    <t>Porsche</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>Porsche</t>
-  </si>
-  <si>
-    <t>My new model</t>
-  </si>
-  <si>
-    <t>24</t>
+    <t>22</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>2022-10-09</t>
+    <t>Mon Oct 10 17:33:27 WEST 2022</t>
   </si>
   <si>
     <t>300 000,99 MAD</t>
@@ -119,7 +110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -159,102 +150,75 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
+        <v>13</v>
+      </c>
+      <c r="K3" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K3" t="s">
-        <v>14</v>
-      </c>
-      <c r="L3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,7 +12,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>stringId</t>
+  </si>
   <si>
     <t>something</t>
   </si>
@@ -20,6 +26,9 @@
     <t>model</t>
   </si>
   <si>
+    <t>fromAbstract</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -44,7 +53,10 @@
     <t>updateDate</t>
   </si>
   <si>
-    <t>price</t>
+    <t>300 000,99 MAD</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>My new model</t>
@@ -53,19 +65,13 @@
     <t>Porsche</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>22</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>Mon Oct 10 17:33:27 WEST 2022</t>
-  </si>
-  <si>
-    <t>300 000,99 MAD</t>
+    <t>Wed Oct 12 17:37:14 WET 2022</t>
   </si>
 </sst>
 </file>
@@ -110,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -127,98 +133,125 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
         <v>17</v>
+      </c>
+      <c r="L3" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -71,7 +71,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Wed Oct 12 17:37:14 WET 2022</t>
+    <t>Sun Oct 16 13:03:08 WEST 2022</t>
   </si>
 </sst>
 </file>

--- a/cars.xlsx
+++ b/cars.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="21">
   <si>
     <t>price</t>
   </si>
@@ -29,6 +29,9 @@
     <t>fromAbstract</t>
   </si>
   <si>
+    <t>hhh</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -53,7 +56,7 @@
     <t>updateDate</t>
   </si>
   <si>
-    <t>300 000,99 MAD</t>
+    <t>300.000,99 MAD</t>
   </si>
   <si>
     <t/>
@@ -71,7 +74,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Sun Oct 16 13:03:08 WEST 2022</t>
+    <t>Tue Sep 26 01:28:00 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -116,7 +119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -165,40 +168,43 @@
       <c r="N1" t="s">
         <v>12</v>
       </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>18</v>
@@ -207,42 +213,45 @@
         <v>19</v>
       </c>
       <c r="N2" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="O2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L3" t="s">
         <v>18</v>
@@ -251,7 +260,10 @@
         <v>19</v>
       </c>
       <c r="N3" t="s">
-        <v>14</v>
+        <v>20</v>
+      </c>
+      <c r="O3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
